--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 20242.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>Mat</t>
   </si>
@@ -109,16 +109,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>PARADA</t>
+  </si>
+  <si>
+    <t>MAZABA</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>MAZABA</t>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>JENKINS</t>
+  </si>
+  <si>
+    <t>PALOMINO</t>
+  </si>
+  <si>
+    <t>ESCOBAR</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
   </si>
   <si>
     <t>COLMENARES</t>
@@ -127,70 +169,112 @@
     <t>CRESCENCIO</t>
   </si>
   <si>
-    <t>PALOMINO</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>JENKINS</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>TRONCO</t>
+  </si>
+  <si>
+    <t>VOTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>JOY JARA</t>
+  </si>
+  <si>
+    <t>YOSHUA RAFAEL</t>
+  </si>
+  <si>
+    <t>MARCO DIDIEL</t>
+  </si>
+  <si>
+    <t>MANUEL ABDUL</t>
   </si>
   <si>
     <t>OSCAR ORLANDO</t>
   </si>
   <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>ALDAIR</t>
-  </si>
-  <si>
-    <t>MANUEL ABDUL</t>
+    <t>DENISSE ARELI</t>
+  </si>
+  <si>
+    <t>ADBIEL</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>ARTHUR RICHARD</t>
+  </si>
+  <si>
+    <t>AARON MIGUEL</t>
+  </si>
+  <si>
+    <t>GIOVANNI ARIEL</t>
+  </si>
+  <si>
+    <t>YERIEL</t>
+  </si>
+  <si>
+    <t>JONATHAN ISRAEL</t>
+  </si>
+  <si>
+    <t>IVONNE ERIMAR</t>
+  </si>
+  <si>
+    <t>CAMILO</t>
   </si>
   <si>
     <t>JULIO EDUARDO</t>
@@ -199,25 +283,7 @@
     <t>DIEGO ARMANDO</t>
   </si>
   <si>
-    <t>AARON MIGUEL</t>
-  </si>
-  <si>
-    <t>CRISTINA YAJANI</t>
-  </si>
-  <si>
-    <t>GIOVANNI ARIEL</t>
-  </si>
-  <si>
-    <t>ARTHUR RICHARD</t>
-  </si>
-  <si>
     <t>JULIAN DAVID</t>
-  </si>
-  <si>
-    <t>JESUS EMMANUEL</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
   </si>
 </sst>
 </file>
@@ -1001,16 +1067,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>78.38</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1024,16 +1093,19 @@
         <v>39</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>39</v>
       </c>
-      <c r="E3">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1047,16 +1119,19 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>84.38</v>
+      </c>
+      <c r="H4">
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1070,16 +1145,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>89.73999999999999</v>
+      </c>
+      <c r="H5">
+        <v>8.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1093,16 +1171,19 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>84.20999999999999</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1116,16 +1197,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>87.5</v>
+      </c>
+      <c r="H7">
+        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1139,16 +1223,19 @@
         <v>34</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="E8">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>8.9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1162,16 +1249,19 @@
         <v>31</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>31</v>
       </c>
-      <c r="E9">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>9.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1185,16 +1275,19 @@
         <v>40</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>97.5</v>
+      </c>
+      <c r="H10">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1208,16 +1301,19 @@
         <v>24</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1231,16 +1327,19 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>92.11</v>
+      </c>
+      <c r="H12">
+        <v>8.9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1254,16 +1353,19 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>96.43000000000001</v>
+      </c>
+      <c r="H13">
+        <v>8.6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1277,16 +1379,19 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>80.65000000000001</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1345,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>72.97</v>
+        <v>78.38</v>
       </c>
       <c r="H2">
         <v>7.8</v>
@@ -1380,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1397,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>81.25</v>
+        <v>84.38</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1423,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>84.62</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1449,16 +1554,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>86.84</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1484,7 +1589,7 @@
         <v>87.5</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1510,7 +1615,7 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1536,7 +1641,7 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1562,7 +1667,7 @@
         <v>97.5</v>
       </c>
       <c r="H10">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1605,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>89.47</v>
+        <v>92.11</v>
       </c>
       <c r="H12">
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1666,7 +1771,7 @@
         <v>80.65000000000001</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1711,16 +1816,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920001</v>
+        <v>24330051920233</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1734,16 +1839,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920326</v>
+        <v>23330051920225</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1757,16 +1862,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920002</v>
+        <v>24330051920353</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1780,22 +1885,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920373</v>
+        <v>24330051920259</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1803,22 +1908,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920424</v>
+        <v>24330051920404</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1826,22 +1931,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920033</v>
+        <v>24330051920373</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1849,68 +1954,68 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920043</v>
+        <v>23330051920001</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920336</v>
+        <v>24330051920387</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920103</v>
+        <v>24330051920084</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1918,22 +2023,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920189</v>
+        <v>22330051920010</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1941,16 +2046,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920045</v>
+        <v>22330051920031</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1964,47 +2069,231 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>22330051920404</v>
+        <v>22330051920189</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920010</v>
+        <v>22330051920043</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>24330051920103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>24330051920145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>24330051920109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>23330051920071</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>22330061460232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>22330051920424</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>22330051920033</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>22330051920045</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 20242.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 20242.xlsx
@@ -160,18 +160,18 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>COLMENARES</t>
+  </si>
+  <si>
+    <t>CRESCENCIO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
-    <t>COLMENARES</t>
-  </si>
-  <si>
-    <t>CRESCENCIO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>PAZ</t>
   </si>
   <si>
@@ -211,18 +211,18 @@
     <t>TRONCO</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>VOTE</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>ADRIAN</t>
   </si>
   <si>
@@ -274,16 +274,16 @@
     <t>IVONNE ERIMAR</t>
   </si>
   <si>
+    <t>JULIO EDUARDO</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO</t>
+  </si>
+  <si>
+    <t>JULIAN DAVID</t>
+  </si>
+  <si>
     <t>CAMILO</t>
-  </si>
-  <si>
-    <t>JULIO EDUARDO</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO</t>
-  </si>
-  <si>
-    <t>JULIAN DAVID</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>22330061460232</v>
+        <v>22330051920424</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>22330051920424</v>
+        <v>22330051920033</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2242,10 +2242,10 @@
         <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>22330051920033</v>
+        <v>22330051920045</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>22330051920045</v>
+        <v>22330061460232</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2288,13 +2288,13 @@
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
